--- a/va_facility_data_2025-02-20/Edith Nourse Rogers Memorial Veterans' Hospital - Facility Data.xlsx"; filename*=UTF-8''Edith%20Nourse%20Rogers%20Memorial%20Veterans%27%20Hospital%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Edith Nourse Rogers Memorial Veterans' Hospital - Facility Data.xlsx"; filename*=UTF-8''Edith%20Nourse%20Rogers%20Memorial%20Veterans%27%20Hospital%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rb43edf75fb404748820fd4858bd052c2"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rd1428b9d0eeb4969a07a61065e34f7a3"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rb5f0f4b560f44c2baced6e610e1ecb07"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R921519e00cb94e9d983f2cba4cbb8cbf"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Re5707c390b2e48538331f1079a210ff8"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R0fe90e09663a47c2919f06aa945f486e"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R75921f58c318404d9f0c37f2759c5728"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rc2217ae45bb64143bbb650b72193ddf6"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R8a83b4d5aa2a4a27894c40e9a9a6aee4"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R8ed91d580f5a44ef82d74877bb51247d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R8ccdfad3d5cb4ff6b61f085860a61d03"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R5fe7c4ec1b4e4e38b0cc77597fd68463"/>
   </x:sheets>
 </x:workbook>
 </file>
